--- a/Report_CR1.xlsx
+++ b/Report_CR1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Software system:</t>
   </si>
@@ -30,30 +30,6 @@
     <t>Modified classes:</t>
   </si>
   <si>
-    <t>3. Navigate to and explore the Dialog class</t>
-  </si>
-  <si>
-    <t>class path 2</t>
-  </si>
-  <si>
-    <t>4. Explore the getResults method in the SearchEngine class from the list of retrieved results of query 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Search for "color search dialog" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Search for "color highlight search dialog" </t>
-  </si>
-  <si>
-    <t>6. Explore the ….</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class path 1 </t>
-  </si>
-  <si>
     <t>(format: org/gjt/sp/jedit/search/HyperSearchResults.java/HyperSearchResults)</t>
   </si>
   <si>
@@ -78,57 +54,12 @@
     <t>Process followed to implement the Change Request:</t>
   </si>
   <si>
-    <t>2. Explore the list of retrieved classes starting with the showDialog method in the SearchDialog class</t>
-  </si>
-  <si>
-    <t>1. Marked the SearchDialog class as impacted, because…</t>
-  </si>
-  <si>
-    <t>2. Marekd the Dialog class as not impacted, because …</t>
-  </si>
-  <si>
-    <t>N. The impact set is …</t>
-  </si>
-  <si>
-    <t>N. We will Modify setColor method in HyperSearchResults - result of Concept Location</t>
-  </si>
-  <si>
-    <t>1. Created class …</t>
-  </si>
-  <si>
-    <t>2. Added method …</t>
-  </si>
-  <si>
-    <t>3. Moved method …</t>
-  </si>
-  <si>
-    <t>1. Created test case …</t>
-  </si>
-  <si>
-    <t>2. Test case #X failed.</t>
-  </si>
-  <si>
-    <t>3. Fixed it the following way …</t>
-  </si>
-  <si>
-    <t>4. Ran test case #4 - pass</t>
-  </si>
-  <si>
     <t>Additional information</t>
   </si>
   <si>
-    <t xml:space="preserve">As you explore and modify the system, you will learn more and more about the classes of system.  Construct an annotated UML diagram with all the classes you have visited and evolve it as you perform the change requests. The diagram could be hand drawn. Save a snapshot at the end of each phase of the change (picture or scan will also work). The annotations on the diagram should be free text, summarizing what you learned about each class. For example, you can write about a class what you think its main purpose is, or some specific opersation it is responsible for and which methods/attributes are the ones implementing that specific operation. Also, you may annotate relationships between classed. For example, if there is a method call between two classes that you understand, you may describe the purpose of that relationship.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">The format described here is just an example. You do not have to use this spreadsheet. You can follow another format but be sure you describe the main steps you follow, such as, searches, code elements you explore, and code elements you modify.  </t>
   </si>
   <si>
-    <t>2. Executed the following scenario …</t>
-  </si>
-  <si>
-    <t>1. Read the aTunes documentation</t>
-  </si>
-  <si>
     <t>Peter Chung</t>
   </si>
   <si>
@@ -139,13 +70,168 @@
   </si>
   <si>
     <t>mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: time to set up environment (download code, set up git repository, ramp up on git and Eclipse etc) is not included =&gt; it takes ~ 5 hr. </t>
+  </si>
+  <si>
+    <t>1. Read change request, run jEdit and confirm the function that needs to be changed.</t>
+  </si>
+  <si>
+    <t>2. Discuss how to approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Search for "recent files" </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Found "RecentFilesProvider()" in jedit_gui_props</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Search for "RecentFilesProvider"</t>
+  </si>
+  <si>
+    <t>4. Explore the RecentFilesProvider class to find getResults method in the SearchEngine class from the list of retrieved results of query 1</t>
+  </si>
+  <si>
+    <t>6. Use break points to confirm the location</t>
+  </si>
+  <si>
+    <t>7. Found the location that needs to be updated</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>We will replace startsWith() method with another method that returns true if this string contains the specified sequence of char values.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Examine update() method in the class and estimate the location that needs to be updated</t>
+  </si>
+  <si>
+    <t>1. Look for places where "RecentFilesProvider() class" is being used</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">RecentFilesProvider() class is only used by jedit_gui_props for recent files menu </t>
+    </r>
+  </si>
+  <si>
+    <t>3. No impact to other classes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Search for a method that does the desire action from Java String class</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>find "contains()" method</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Replace startsWith() method with contains() method</t>
+    </r>
+  </si>
+  <si>
+    <t>3. All of the test cases - pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Test multiple combinations of characters (one char, two char, three char , four char, up to full name) from the file name list </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>RecentFilesProvider</t>
+  </si>
+  <si>
+    <t>org/gjt/sp/jedit/menu/RecentFilesProvider.java/update</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>1. Open multiple files with different combination of file names (two files to five files)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +286,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,18 +310,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -241,10 +332,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,282 +620,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="66.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B10:B14)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6" t="s">
-        <v>34</v>
+      <c r="A20" s="7"/>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
-        <v>14</v>
+      <c r="A23" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="6" t="s">
-        <v>19</v>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="4" t="s">
-        <v>7</v>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="B39" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>27</v>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="B42" s="6" t="s">
-        <v>28</v>
+      <c r="B42" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="B43" s="6" t="s">
-        <v>29</v>
+      <c r="B43" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="B44" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="B45" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B45" s="5"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="180">
-      <c r="A48" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
